--- a/data/city_bicycle_parking/data.xlsx
+++ b/data/city_bicycle_parking/data.xlsx
@@ -545,10 +545,10 @@
         <v>月火水木金土日</v>
       </c>
       <c r="J4" t="str">
-        <v>06:00</v>
+        <v>05:45</v>
       </c>
       <c r="K4" t="str">
-        <v>23:00</v>
+        <v>23:45</v>
       </c>
       <c r="L4" t="str">
         <v/>
